--- a/biology/Mycologie/Nom_sanctionné/Nom_sanctionné.xlsx
+++ b/biology/Mycologie/Nom_sanctionné/Nom_sanctionné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nom_sanctionn%C3%A9</t>
+          <t>Nom_sanctionné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En nomenclature botanique et mycologique, un nom sanctionné est un nom de taxon qui n'a pas été validement décrit ou publié par son auteur, mais néanmoins adopté et validé par le CIN, à condition qu'il figure dans l'un des deux ouvrages dits « sanctionnants[1] » : 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En nomenclature botanique et mycologique, un nom sanctionné est un nom de taxon qui n'a pas été validement décrit ou publié par son auteur, mais néanmoins adopté et validé par le CIN, à condition qu'il figure dans l'un des deux ouvrages dits « sanctionnants » : 
 Synopsis Methodica Fungorum 1801, de Persoon, pour les Gastéromycètes, Urédinales (rouilles) et Ustilaginales (charbons) ;
 Systema Mycologicum 1821-1832, de Fries, pour tous les autres champignons, myxomycètes exclus.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nom_sanctionn%C3%A9</t>
+          <t>Nom_sanctionné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Définition et effets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Un nom sanctionné est un nom binominal choisi parmi une liste de synonymes possibles, comme nom valide par Persoon ou par Fries dans ses Systema Mycologicum (trois volumes, publiés entre 1821 et 1832) et son Elenchus fungorum pour tous les autres champignons[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Un nom sanctionné est un nom binominal choisi parmi une liste de synonymes possibles, comme nom valide par Persoon ou par Fries dans ses Systema Mycologicum (trois volumes, publiés entre 1821 et 1832) et son Elenchus fungorum pour tous les autres champignons.
 Comme défini par l'article 15 du Code international de nomenclature pour les algues, les champignons et les plantes, un nom sanctionné est automatiquement conservé, en dépit des synonymes ou homonymes antérieurs. Il peut cependant faire l'objet d'une mesure de conservation ou de rejet sur demande au Comité.
 Par exemple, la trompette des morts, Craterellus cornucopioides (L. : Fr.) Pers. (1825).
 les noms ainsi sanctionnés sont protégés contre leurs synonymes et homonymes concurrents (sauf conservation, ou « rejet spécial »). Par exemple, Agaricus decolorans Fr. : Fr. est un nom sanctionné, prioritaire sur son homonyme Agaricus decolorans Pers., pourtant plus ancien mais non sanctionné ;
